--- a/biology/Biologie cellulaire et moléculaire/ARNsn_U6atac/ARNsn_U6atac.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ARNsn_U6atac/ARNsn_U6atac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ARNsn U6atac est un petit ARN nucléaire (snRNA ou ARNpn) non codant entrant dans la composition des petites ribonucléoprotéines nucléaires U6atac.
-Il est une composante essentielle du splicéosome mineur. Il est indispensable pour l'épissage de certains introns des eucaryotes (AT-AC, type-U12)[1].
-On pense qu'U6atac s'apparie avec un autre composant du splicéosome mineur, l'ARNsn U4atac par deux régions de structure tige-boucle. On a montré que ces boucles interactives se révélaient être indispensables pour l'épissage in vivo[2].
-U6atac est l'analogue fonctionnel de l'ARNsn U6 du splicéosome majeur[2].
+Il est une composante essentielle du splicéosome mineur. Il est indispensable pour l'épissage de certains introns des eucaryotes (AT-AC, type-U12).
+On pense qu'U6atac s'apparie avec un autre composant du splicéosome mineur, l'ARNsn U4atac par deux régions de structure tige-boucle. On a montré que ces boucles interactives se révélaient être indispensables pour l'épissage in vivo.
+U6atac est l'analogue fonctionnel de l'ARNsn U6 du splicéosome majeur.
 </t>
         </is>
       </c>
